--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_interface_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_interface_logs.xlsx
@@ -510,8 +510,61 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:eb7b147b-c726-4d24-823e-164b2f52ca60"&gt;
-  &lt;data/&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:4c53490a-c377-4d57-8819-3236b46c07a4"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
 &lt;/rpc-reply&gt;
 </t>
         </is>
@@ -532,11 +585,11 @@
           &lt;/config&gt;
           &lt;protocols&gt;
             &lt;protocol&gt;
-              &lt;identifier&gt;OSPF&lt;/identifier&gt;
-              &lt;name&gt;OSPF_1&lt;/name&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
               &lt;config&gt;
                 &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
-                &lt;name&gt;OSPF_1&lt;/name&gt;
+                &lt;name&gt;22&lt;/name&gt;
               &lt;/config&gt;
               &lt;ospfv2&gt;
                 &lt;areas&gt;
@@ -547,13 +600,13 @@
                     &lt;/config&gt;
                     &lt;interfaces&gt;
                       &lt;interface&gt;
-                        &lt;id&gt;1&lt;/id&gt;
+                        &lt;id&gt;GigabitEthernet0/3/0&lt;/id&gt;
                         &lt;config&gt;
-                          &lt;id&gt;1&lt;/id&gt;
+                          &lt;id&gt;GigabitEthernet0/3/0&lt;/id&gt;
                         &lt;/config&gt;
                         &lt;interface-ref&gt;
                           &lt;config&gt;
-                            &lt;interface&gt;GigabitEthernet0/5/3&lt;/interface&gt;
+                            &lt;interface&gt;GigabitEthernet0/3/0&lt;/interface&gt;
                           &lt;/config&gt;
                         &lt;/interface-ref&gt;					
                       &lt;/interface&gt;
